--- a/Design/config/ForceConfig.xlsx
+++ b/Design/config/ForceConfig.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>序列</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -91,6 +91,34 @@
   </si>
   <si>
     <t>50,50,255</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁绍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,150,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100,100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="255" wrapText="1"/>
@@ -203,6 +231,9 @@
       <alignment horizontal="left" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -485,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -496,9 +527,10 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,10 +538,13 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -517,10 +552,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -528,10 +566,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -541,43 +582,83 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="4">
+        <v>100001</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="4">
+        <v>100002</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="4">
+        <v>100003</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4">
+        <v>100006</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4">
+        <v>100004</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:C5">
-    <sortState ref="A5:H12">
+    <sortState ref="A5:C9">
       <sortCondition ref="A4:A5"/>
     </sortState>
   </autoFilter>

--- a/Design/config/ForceConfig.xlsx
+++ b/Design/config/ForceConfig.xlsx
@@ -114,11 +114,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>200,150,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>100,100,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,200,0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +519,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -652,7 +652,7 @@
       <c r="C9" s="4">
         <v>100004</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Design/config/ForceConfig.xlsx
+++ b/Design/config/ForceConfig.xlsx
@@ -70,55 +70,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>曹操</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁绍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Color</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>50,255,50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹操</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙权</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>255,50,50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,50,255</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeroId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>影响id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>董卓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁绍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,100,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,200,0</t>
+    <t>#3232FF</t>
+  </si>
+  <si>
+    <t>#FF3232</t>
+  </si>
+  <si>
+    <t>#C8C800</t>
+  </si>
+  <si>
+    <t>#646464</t>
+  </si>
+  <si>
+    <t>#32DD32</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +515,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -538,7 +534,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>11</v>
@@ -552,10 +548,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -566,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -597,7 +593,7 @@
         <v>100001</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -605,13 +601,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
         <v>100002</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -619,13 +615,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4">
         <v>100003</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -633,13 +629,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4">
         <v>100006</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -647,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4">
         <v>100004</v>

--- a/Design/config/ForceConfig.xlsx
+++ b/Design/config/ForceConfig.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>序列</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -102,20 +102,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#3232FF</t>
-  </si>
-  <si>
-    <t>#FF3232</t>
-  </si>
-  <si>
-    <t>#C8C800</t>
-  </si>
-  <si>
     <t>#646464</t>
   </si>
   <si>
-    <t>#32DD32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>马腾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#B28500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张鲁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘璋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#387800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2828E9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#D10028</t>
+  </si>
+  <si>
+    <t>#DBD33A</t>
+  </si>
+  <si>
+    <t>#20DFE0</t>
+  </si>
+  <si>
+    <t>#200070</t>
+  </si>
+  <si>
+    <t>#A1D487</t>
+  </si>
+  <si>
+    <t>袁术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#F69CB2</t>
+  </si>
+  <si>
+    <t>公孙瓒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#F36B20</t>
+  </si>
+  <si>
+    <t>公孙度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#A385AD</t>
   </si>
 </sst>
 </file>
@@ -512,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -593,7 +644,7 @@
         <v>100001</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -607,7 +658,7 @@
         <v>100002</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -621,7 +672,7 @@
         <v>100003</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -635,7 +686,7 @@
         <v>100006</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -649,7 +700,105 @@
         <v>100004</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4">
+        <v>100011</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4">
+        <v>100007</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4">
+        <v>100008</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="C13" s="4">
+        <v>100009</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4">
+        <v>100010</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4">
+        <v>100012</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4">
+        <v>100013</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Design/config/ForceConfig.xlsx
+++ b/Design/config/ForceConfig.xlsx
@@ -566,7 +566,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -683,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>100006</v>
+        <v>100004</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>29</v>
@@ -697,7 +697,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="4">
-        <v>100004</v>
+        <v>100005</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>20</v>
@@ -711,7 +711,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="4">
-        <v>100011</v>
+        <v>100006</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>22</v>
@@ -781,7 +781,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="4">
-        <v>100012</v>
+        <v>100011</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>36</v>
@@ -795,7 +795,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="4">
-        <v>100013</v>
+        <v>100012</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>38</v>

--- a/Design/config/ForceConfig.xlsx
+++ b/Design/config/ForceConfig.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>序列</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -167,6 +167,14 @@
   </si>
   <si>
     <t>#A385AD</t>
+  </si>
+  <si>
+    <t>#CCCCCC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -563,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -799,6 +807,20 @@
       </c>
       <c r="D16" s="5" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>99</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4">
+        <v>100020</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
